--- a/compat/tablesSchema.1.2.2.xlsx
+++ b/compat/tablesSchema.1.2.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="20730" windowHeight="6645" tabRatio="690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -78,9 +78,6 @@
     <t>tseTargetGroup</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Target group</t>
   </si>
   <si>
@@ -969,472 +966,490 @@
     <t>SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label)</t>
   </si>
   <si>
+    <t>%anMethType.code|.|%anMethCode.code</t>
+  </si>
+  <si>
+    <t>%type.code</t>
+  </si>
+  <si>
+    <t>F21.A07RV</t>
+  </si>
+  <si>
+    <t>opType</t>
+  </si>
+  <si>
+    <t>AUTOMATICALLY FILLED! DO NOT TOUCH</t>
+  </si>
+  <si>
+    <t>for reject/submit should be not inserted</t>
+  </si>
+  <si>
+    <t>reportVersion</t>
+  </si>
+  <si>
+    <t>Automatically filled, do not touch</t>
+  </si>
+  <si>
+    <t>alleleList</t>
+  </si>
+  <si>
+    <t>RESEVAL</t>
+  </si>
+  <si>
+    <t>paramCodeBaseTerm</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
+  </si>
+  <si>
+    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for CWD</t>
+  </si>
+  <si>
+    <t>pref8</t>
+  </si>
+  <si>
+    <t>pref9</t>
+  </si>
+  <si>
+    <t>pref10</t>
+  </si>
+  <si>
+    <t>defDiscriminatorySCRAPIE</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryCWD</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryBSE</t>
+  </si>
+  <si>
+    <t>Discriminatory BSE</t>
+  </si>
+  <si>
+    <t>Discriminatory SCRAPIE</t>
+  </si>
+  <si>
+    <t>Discriminatory CWD</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for CWD</t>
+  </si>
+  <si>
+    <t>resultsLists</t>
+  </si>
+  <si>
+    <t>testAim</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%anMethType.code!=AT13A)</t>
+  </si>
+  <si>
+    <t>internalOpType</t>
+  </si>
+  <si>
+    <t>(%internalOpType.label!=Insert)</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
+  </si>
+  <si>
+    <t>childrenContainErrors</t>
+  </si>
+  <si>
+    <t>Automatically FILLED, special field</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
+  </si>
+  <si>
+    <t>BSE$AT06A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT06A</t>
+  </si>
+  <si>
+    <t>CWD$AT06A</t>
+  </si>
+  <si>
+    <t>BSE$AT08A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT08A</t>
+  </si>
+  <si>
+    <t>CWD$AT08A</t>
+  </si>
+  <si>
+    <t>BSE$AT12A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT12A</t>
+  </si>
+  <si>
+    <t>CWD$AT12A</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
+  </si>
+  <si>
+    <t>Born in the flock</t>
+  </si>
+  <si>
+    <t>Number of Negative Animals</t>
+  </si>
+  <si>
+    <t>Total number of Tested Samples/Animals</t>
+  </si>
+  <si>
+    <t>Executed test</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,0)</t>
+  </si>
+  <si>
+    <t>(%type.code!=RGT)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
+  </si>
+  <si>
+    <t>reportYearsList</t>
+  </si>
+  <si>
+    <t>animalYearsList</t>
+  </si>
+  <si>
+    <t>reportPreviousStatus</t>
+  </si>
+  <si>
+    <t>repPreviousStatus</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
+  </si>
+  <si>
+    <t>EU legal reference</t>
+  </si>
+  <si>
+    <t>Res ID</t>
+  </si>
+  <si>
+    <t>EU legislation related to the reason for sampling</t>
+  </si>
+  <si>
+    <t>Prog ID</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
+  </si>
+  <si>
+    <t>progIdSuffix</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MTX.gender</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
+  </si>
+  <si>
+    <t>N123A</t>
+  </si>
+  <si>
+    <t>sexLists</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
+  </si>
+  <si>
+    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
+  </si>
+  <si>
+    <t>reportLastMessageId</t>
+  </si>
+  <si>
+    <t>reportLastModifyingMessageId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
+  </si>
+  <si>
+    <t>PSUId</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
+  </si>
+  <si>
+    <t>Sample/case assessment</t>
+  </si>
+  <si>
+    <t>First test type</t>
+  </si>
+  <si>
+    <t>First test</t>
+  </si>
+  <si>
+    <t>Type of the first executed test</t>
+  </si>
+  <si>
+    <t>First executed test</t>
+  </si>
+  <si>
+    <t>sampInfo</t>
+  </si>
+  <si>
+    <t>D.11</t>
+  </si>
+  <si>
+    <t>origSampId</t>
+  </si>
+  <si>
+    <t>sampUnitType</t>
+  </si>
+  <si>
+    <t>C.02</t>
+  </si>
+  <si>
+    <t>G199A</t>
+  </si>
+  <si>
+    <t>H.01</t>
+  </si>
+  <si>
+    <t>anPortSeq</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>Portion of the analyzed sample</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>sampEventAsses</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE),(RELATION{SummarizedInformation,type.code}!=CWD))</t>
+  </si>
+  <si>
+    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=SCRAPIE),(RELATION{SummarizedInformation,type.code}!=RGT),(RELATION{SummarizedInformation,type.code}!=BSEOS)),Y,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>cwdExtCont</t>
+  </si>
+  <si>
+    <t>pref11</t>
+  </si>
+  <si>
+    <t>CWD extended context</t>
+  </si>
+  <si>
+    <t>yesNoLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sex of the animals</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>%type.code|$%anMethType.code</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,AT06A)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
+  </si>
+  <si>
+    <t>Flag to include sex and PSU in the context for aggregated data</t>
+  </si>
+  <si>
+    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd/Flock status</t>
+  </si>
+  <si>
+    <t>Husbandry system</t>
+  </si>
+  <si>
+    <t>Aggregated-Data-(Level-1)</t>
+  </si>
+  <si>
+    <t>Sample-Level-Data-(Level-2)</t>
+  </si>
+  <si>
+    <t>Analytical-Test-Results-(Level-3)</t>
+  </si>
+  <si>
+    <t>Report-Management</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+  </si>
+  <si>
+    <t>%progId.label|.0</t>
+  </si>
+  <si>
     <t>%progId.label</t>
   </si>
   <si>
-    <t>%anMethType.code|.|%anMethCode.code</t>
-  </si>
-  <si>
-    <t>%type.code</t>
-  </si>
-  <si>
-    <t>%progId.label|.0</t>
-  </si>
-  <si>
-    <t>F21.A07RV</t>
-  </si>
-  <si>
-    <t>opType</t>
-  </si>
-  <si>
-    <t>AUTOMATICALLY FILLED! DO NOT TOUCH</t>
-  </si>
-  <si>
-    <t>for reject/submit should be not inserted</t>
-  </si>
-  <si>
-    <t>reportVersion</t>
-  </si>
-  <si>
-    <t>Automatically filled, do not touch</t>
-  </si>
-  <si>
-    <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>alleleList</t>
-  </si>
-  <si>
-    <t>RESEVAL</t>
-  </si>
-  <si>
-    <t>paramCodeBaseTerm</t>
-  </si>
-  <si>
-    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
-  </si>
-  <si>
-    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for BSE</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for SCRAPIE</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for CWD</t>
-  </si>
-  <si>
-    <t>pref8</t>
-  </si>
-  <si>
-    <t>pref9</t>
-  </si>
-  <si>
-    <t>pref10</t>
-  </si>
-  <si>
-    <t>defDiscriminatorySCRAPIE</t>
-  </si>
-  <si>
-    <t>defDiscriminatoryCWD</t>
-  </si>
-  <si>
-    <t>defDiscriminatoryBSE</t>
-  </si>
-  <si>
-    <t>Discriminatory BSE</t>
-  </si>
-  <si>
-    <t>Discriminatory SCRAPIE</t>
-  </si>
-  <si>
-    <t>Discriminatory CWD</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for BSE</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for SCRAPIE</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for CWD</t>
-  </si>
-  <si>
-    <t>resultsLists</t>
-  </si>
-  <si>
-    <t>testAim</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
-  </si>
-  <si>
-    <t>(%anMethType.code!=AT13A)</t>
-  </si>
-  <si>
-    <t>internalOpType</t>
-  </si>
-  <si>
-    <t>(%internalOpType.label!=Insert)</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
-  </si>
-  <si>
-    <t>childrenContainErrors</t>
-  </si>
-  <si>
-    <t>Automatically FILLED, special field</t>
-  </si>
-  <si>
-    <t>AggregatedLevel</t>
-  </si>
-  <si>
-    <t>AnalyticalResult</t>
-  </si>
-  <si>
-    <t>CaseLevel</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
-  </si>
-  <si>
-    <t>BSE$AT06A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT06A</t>
-  </si>
-  <si>
-    <t>CWD$AT06A</t>
-  </si>
-  <si>
-    <t>BSE$AT08A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT08A</t>
-  </si>
-  <si>
-    <t>CWD$AT08A</t>
-  </si>
-  <si>
-    <t>BSE$AT12A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT12A</t>
-  </si>
-  <si>
-    <t>CWD$AT12A</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
-  </si>
-  <si>
-    <t>Herd status</t>
-  </si>
-  <si>
-    <t>Farmed/Wild</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
-  </si>
-  <si>
-    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
-  </si>
-  <si>
-    <t>Born in the flock</t>
-  </si>
-  <si>
-    <t>Number of Negative Animals</t>
-  </si>
-  <si>
-    <t>Total number of Tested Samples/Animals</t>
-  </si>
-  <si>
-    <t>Executed test</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,0)</t>
-  </si>
-  <si>
-    <t>(%type.code!=RGT)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
-  </si>
-  <si>
-    <t>reportYearsList</t>
-  </si>
-  <si>
-    <t>animalYearsList</t>
-  </si>
-  <si>
-    <t>reportPreviousStatus</t>
-  </si>
-  <si>
-    <t>repPreviousStatus</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
-  </si>
-  <si>
-    <t>EU legal reference</t>
-  </si>
-  <si>
-    <t>Res ID</t>
-  </si>
-  <si>
-    <t>EU legislation related to the reason for sampling</t>
-  </si>
-  <si>
-    <t>Prog ID</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
-  </si>
-  <si>
-    <t>progIdSuffix</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
-    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>MTX.gender</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
-  </si>
-  <si>
-    <t>N123A</t>
-  </si>
-  <si>
-    <t>sexLists</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
-  </si>
-  <si>
-    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
-  </si>
-  <si>
-    <t>reportLastMessageId</t>
-  </si>
-  <si>
-    <t>reportLastModifyingMessageId</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
-  </si>
-  <si>
-    <t>PSUId</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
-  </si>
-  <si>
-    <t>Sample/case assessment</t>
-  </si>
-  <si>
-    <t>First test type</t>
-  </si>
-  <si>
-    <t>First test</t>
-  </si>
-  <si>
-    <t>Type of the first executed test</t>
-  </si>
-  <si>
-    <t>First executed test</t>
-  </si>
-  <si>
-    <t>sampInfo</t>
-  </si>
-  <si>
-    <t>D.11</t>
-  </si>
-  <si>
-    <t>origSampId</t>
-  </si>
-  <si>
-    <t>origSampId=%origSampId.label</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,sampId.label}</t>
-  </si>
-  <si>
-    <t>sampUnitType</t>
-  </si>
-  <si>
-    <t>C.02</t>
-  </si>
-  <si>
-    <t>G199A</t>
-  </si>
-  <si>
-    <t>H.01</t>
-  </si>
-  <si>
-    <t>anPortSeq</t>
-  </si>
-  <si>
-    <t>Portion</t>
-  </si>
-  <si>
-    <t>Portion of the analyzed sample</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>sampEventAsses</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE),(RELATION{SummarizedInformation,type.code}!=CWD))</t>
-  </si>
-  <si>
-    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=SCRAPIE),(RELATION{SummarizedInformation,type.code}!=RGT),(RELATION{SummarizedInformation,type.code}!=BSEOS)),Y,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
-    <t>cwdExtCont</t>
-  </si>
-  <si>
-    <t>pref11</t>
-  </si>
-  <si>
-    <t>CWD extended context</t>
-  </si>
-  <si>
-    <t>yesNoLists</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Sex of the animals</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==Yes))</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>%type.code|$%anMethType.code</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
-  </si>
-  <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.label}==No))</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,AT06A)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),F,)</t>
-  </si>
-  <si>
-    <t>IF(%type.code==SCRAPIE,F,)</t>
-  </si>
-  <si>
-    <t>Flag to include sex and PSU in the context for aggregated data</t>
-  </si>
-  <si>
-    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),Not infected,)</t>
+  </si>
+  <si>
+    <t>NEXT(,)</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>Report Status</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.code},)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,cwdExtCont.code}</t>
+  </si>
+  <si>
+    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{SummarizedInformation,cwdExtCont.code}==N))</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
+  </si>
+  <si>
+    <t>IF(%type.code!=RGT, origSampId=%sampId.label, )</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,cwdExtCont.label}</t>
   </si>
 </sst>
 </file>
@@ -1466,6 +1481,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3129,16 +3145,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S39" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S39">
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:S39">
-    <sortCondition ref="A1:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S41" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S41"/>
+  <sortState ref="A2:S41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -3593,82 +3603,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -3693,23 +3703,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -3734,23 +3744,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>9</v>
@@ -3787,10 +3797,10 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,7 +3814,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" customWidth="1"/>
     <col min="13" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
@@ -3812,81 +3822,81 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>9</v>
@@ -3898,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="5"/>
       <c r="R2" s="2">
@@ -3907,22 +3917,22 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>9</v>
@@ -3934,16 +3944,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>464</v>
-      </c>
       <c r="M3" s="17" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -3957,22 +3967,22 @@
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -3984,10 +3994,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -3995,22 +4005,22 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>9</v>
@@ -4022,10 +4032,10 @@
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4033,22 +4043,22 @@
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>9</v>
@@ -4060,10 +4070,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4071,22 +4081,22 @@
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
@@ -4098,10 +4108,10 @@
         <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4109,22 +4119,22 @@
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
@@ -4136,10 +4146,10 @@
         <v>9</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4147,22 +4157,22 @@
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>5</v>
@@ -4174,10 +4184,10 @@
         <v>9</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4185,23 +4195,23 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
@@ -4213,10 +4223,10 @@
         <v>9</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4224,23 +4234,23 @@
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>9</v>
@@ -4252,10 +4262,10 @@
         <v>9</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4263,23 +4273,23 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>9</v>
@@ -4291,10 +4301,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4319,10 +4329,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4348,82 +4358,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -4435,15 +4445,15 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
@@ -4458,23 +4468,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -4486,15 +4496,15 @@
         <v>9</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
@@ -4509,18 +4519,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4537,10 +4547,10 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4554,23 +4564,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>9</v>
@@ -4582,15 +4592,15 @@
         <v>9</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10" t="s">
@@ -4605,10 +4615,10 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
@@ -4628,16 +4638,16 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
@@ -4658,18 +4668,18 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
@@ -4697,16 +4707,16 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
@@ -4734,16 +4744,16 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
@@ -4771,18 +4781,20 @@
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>249</v>
-      </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>463</v>
+      </c>
       <c r="E11" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
@@ -4792,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -4803,25 +4815,29 @@
       <c r="Q11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="17">
+        <v>5</v>
+      </c>
       <c r="S11" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>464</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
@@ -4831,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -4842,25 +4858,27 @@
       <c r="Q12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="17"/>
+      <c r="R12" s="17">
+        <v>6</v>
+      </c>
       <c r="S12" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
@@ -4897,13 +4915,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A1:S39"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4930,75 +4948,75 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -5013,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>9</v>
@@ -5021,37 +5039,37 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -5065,46 +5083,46 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>9</v>
@@ -5116,18 +5134,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -5142,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>9</v>
@@ -5150,46 +5168,46 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -5201,15 +5219,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -5227,83 +5245,86 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="O9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>179</v>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="G10" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
@@ -5313,236 +5334,231 @@
       <c r="J10" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="Q10" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>468</v>
+        <v>4</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="6">
-        <v>3</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>393</v>
+        <v>453</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>4</v>
+        <v>450</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="M12" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R12" s="6">
+        <v>3</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="H14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q14" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="J15" s="6" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="Q16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="6">
         <v>10</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="S16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>174</v>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="G17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
       </c>
@@ -5552,57 +5568,48 @@
       <c r="J17" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="Q17" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -5616,25 +5623,28 @@
       <c r="J19" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N19" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="P19" s="6" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -5649,59 +5659,59 @@
         <v>4</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>314</v>
+        <v>459</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -5712,57 +5722,57 @@
       <c r="J22" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N22" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="P22" s="6" t="s">
-        <v>458</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>8</v>
@@ -5776,147 +5786,150 @@
       <c r="J24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="P24" s="6" t="s">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="H27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="H28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>299</v>
+      <c r="O28" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>180</v>
+        <v>223</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>175</v>
@@ -5930,150 +5943,111 @@
       <c r="J29" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="P29" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="Q29" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>451</v>
+        <v>47</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="P30"/>
+        <v>4</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="Q30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" s="6">
-        <v>6</v>
-      </c>
-      <c r="S30" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="6">
-        <v>2</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>38</v>
+      <c r="G32" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>109</v>
+      <c r="K32" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>466</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="P32"/>
       <c r="Q32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R32" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>9</v>
@@ -6081,78 +6055,99 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>377</v>
+      <c r="K33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R33" s="6">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>26</v>
+        <v>452</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K34" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="O34" s="6" t="s">
-        <v>377</v>
+        <v>458</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>9</v>
@@ -6160,200 +6155,279 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R35" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>313</v>
+      <c r="O36" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R36" s="6">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R37" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>316</v>
+      <c r="P38" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R38" s="6">
-        <v>5</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>29</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>316</v>
+      <c r="O39" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R39" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R40" s="6">
+        <v>5</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6370,11 +6444,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6402,96 +6476,96 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -6502,19 +6576,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="F3" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>8</v>
@@ -6537,22 +6611,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -6564,16 +6638,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6587,37 +6661,37 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6628,37 +6702,37 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6669,31 +6743,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -6707,25 +6781,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6743,19 +6817,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>8</v>
@@ -6779,19 +6853,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -6815,16 +6889,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D11" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>12</v>
@@ -6840,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
@@ -6851,25 +6925,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6878,10 +6952,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -6892,40 +6966,40 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="L13" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -6936,25 +7010,25 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -6963,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -6976,25 +7050,25 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7003,7 +7077,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7014,23 +7088,23 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7039,7 +7113,7 @@
         <v>3</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
@@ -7050,22 +7124,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
@@ -7077,10 +7151,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7091,19 +7165,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -7126,19 +7200,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -7161,10 +7235,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
@@ -7181,10 +7255,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -7201,13 +7275,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -7238,11 +7312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,154 +7342,154 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -7430,13 +7504,13 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>9</v>
@@ -7447,13 +7521,13 @@
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
@@ -7465,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7473,25 +7547,25 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>3</v>
@@ -7503,10 +7577,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7517,22 +7591,22 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -7547,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>9</v>
@@ -7555,25 +7629,25 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>3</v>
@@ -7585,10 +7659,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -7599,22 +7673,22 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>3</v>
@@ -7623,24 +7697,24 @@
         <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
       </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="R9" s="6">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
@@ -7657,16 +7731,16 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>4</v>
@@ -7678,7 +7752,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7686,13 +7760,13 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>4</v>
@@ -7704,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -7712,19 +7786,19 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="E13" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>8</v>
@@ -7739,7 +7813,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -7747,10 +7821,10 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>4</v>
@@ -7762,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -7770,20 +7844,20 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="H15" s="6" t="s">
         <v>4</v>
       </c>
@@ -7794,10 +7868,10 @@
         <v>4</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>9</v>
@@ -7814,7 +7888,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
@@ -7829,7 +7903,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -7837,10 +7911,10 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>8</v>
@@ -7855,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7872,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -7887,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -7904,13 +7978,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -7925,7 +7999,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -7933,20 +8007,20 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
       </c>
@@ -7957,7 +8031,7 @@
         <v>4</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -7965,10 +8039,10 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -7985,16 +8059,16 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>8</v>
@@ -8009,7 +8083,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -8017,22 +8091,22 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>8</v>
@@ -8047,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8058,19 +8132,19 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>4</v>
@@ -8082,7 +8156,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8090,16 +8164,16 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
@@ -8111,7 +8185,7 @@
         <v>4</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -8119,16 +8193,16 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>8</v>
@@ -8143,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -8151,19 +8225,19 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>4</v>
@@ -8175,7 +8249,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>9</v>
@@ -8183,19 +8257,19 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>4</v>
@@ -8207,7 +8281,7 @@
         <v>4</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -8215,16 +8289,16 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>8</v>
@@ -8239,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>9</v>
@@ -8247,16 +8321,16 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>8</v>
@@ -8271,7 +8345,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8279,16 +8353,16 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>4</v>
@@ -8300,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8308,22 +8382,22 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>8</v>
@@ -8338,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -8346,16 +8420,16 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>4</v>
@@ -8367,7 +8441,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8375,16 +8449,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>8</v>
@@ -8399,7 +8473,7 @@
         <v>4</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -8407,20 +8481,20 @@
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="H35" s="6" t="s">
         <v>4</v>
       </c>
@@ -8431,7 +8505,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8439,16 +8513,16 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>4</v>
@@ -8460,7 +8534,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -8468,34 +8542,34 @@
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="O37" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>9</v>
@@ -8503,16 +8577,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>8</v>
@@ -8527,7 +8601,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8535,16 +8609,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>4</v>
@@ -8556,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8564,16 +8638,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>8</v>
@@ -8588,10 +8662,10 @@
         <v>4</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -8599,13 +8673,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>4</v>
@@ -8617,7 +8691,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -8625,10 +8699,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>4</v>
@@ -8645,31 +8719,31 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>5</v>
@@ -8691,33 +8765,33 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -8725,10 +8799,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -8736,10 +8810,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -8747,10 +8821,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -8758,10 +8832,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -8769,10 +8843,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -8780,10 +8854,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -8791,10 +8865,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -8802,10 +8876,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -8813,10 +8887,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -8824,10 +8898,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8846,7 +8920,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,58 +8930,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8923,10 +8997,10 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8954,75 +9028,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -9037,7 +9111,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
@@ -9048,16 +9122,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -9072,7 +9146,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
@@ -9083,16 +9157,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -9106,7 +9180,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
       <c r="P4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -9116,16 +9190,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
@@ -9139,7 +9213,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="10"/>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -9149,22 +9223,22 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>237</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -9172,13 +9246,13 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>4</v>
@@ -9188,7 +9262,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -9196,13 +9270,13 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>4</v>
@@ -9212,7 +9286,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -9220,13 +9294,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>4</v>
@@ -9236,7 +9310,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -9244,18 +9318,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -9271,26 +9345,26 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="24" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -9304,7 +9378,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -9314,14 +9388,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -9330,21 +9404,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -9359,16 +9433,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -9383,10 +9457,10 @@
     </row>
     <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>4</v>
@@ -9397,10 +9471,10 @@
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>4</v>
